--- a/host/function/scripts/IA-xx.xlsx
+++ b/host/function/scripts/IA-xx.xlsx
@@ -8,15 +8,15 @@
     <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="121" sheetId="1" r:id="rId4"/>
+    <sheet name="101" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1595959594" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1595959594" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1595959594" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1595959594"/>
+      <pm:revision xmlns:pm="smNativeData" day="1596052559" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1596052559" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1596052559" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1596052559"/>
     </ext>
   </extLst>
 </workbook>
@@ -40,16 +40,16 @@
     <t>DEVICE_NAME</t>
   </si>
   <si>
-    <t>10.128.121.212</t>
-  </si>
-  <si>
-    <t>teste1</t>
+    <t>10.128.101.106</t>
+  </si>
+  <si>
+    <t>BBB-SALA01-CON-MBTEMP-BO-01-05</t>
   </si>
   <si>
     <t>MBTemp</t>
   </si>
   <si>
-    <t>1,2,3</t>
+    <t>1,2,3,4,5</t>
   </si>
   <si>
     <t>10.128.121.213</t>
@@ -58,7 +58,7 @@
     <t>teste2</t>
   </si>
   <si>
-    <t>5,6,7</t>
+    <t>6,7</t>
   </si>
   <si>
     <t>10.128.121.214</t>
@@ -192,7 +192,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1595959594" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1596052559" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -207,7 +207,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1595959594" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1596052559" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -223,7 +223,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1595959594" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1596052559" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -245,7 +245,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1595959594" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1596052559" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -267,7 +267,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595959594"/>
+          <pm:border xmlns:pm="smNativeData" id="1596052559"/>
         </ext>
       </extLst>
     </border>
@@ -286,7 +286,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1595959594"/>
+          <pm:border xmlns:pm="smNativeData" id="1596052559"/>
         </ext>
       </extLst>
     </border>
@@ -307,7 +307,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1595959594" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1596052559" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -574,7 +574,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -779,7 +779,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1595959594" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1596052559" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -788,14 +788,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1595959594" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1595959594" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1596052559" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1596052559" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1595959594" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1596052559" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/host/function/scripts/IA-xx.xlsx
+++ b/host/function/scripts/IA-xx.xlsx
@@ -8,22 +8,22 @@
     <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="101" sheetId="1" r:id="rId4"/>
+    <sheet name="102" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1596052559" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1596052559" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1596052559" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1596052559"/>
+      <pm:revision xmlns:pm="smNativeData" day="1596475201" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1596475201" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1596475201" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1596475201"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>BBB_IP</t>
   </si>
@@ -40,133 +40,64 @@
     <t>DEVICE_NAME</t>
   </si>
   <si>
-    <t>10.128.101.106</t>
-  </si>
-  <si>
-    <t>BBB-SALA01-CON-MBTEMP-BO-01-05</t>
+    <t>10.128.102.101</t>
+  </si>
+  <si>
+    <t>BBB-SALA02-VAC-MKS</t>
+  </si>
+  <si>
+    <t>MKS</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>10.128.102.102</t>
+  </si>
+  <si>
+    <t>BBB-SALA02-VAC-4UHV-BO</t>
+  </si>
+  <si>
+    <t>4UHV</t>
+  </si>
+  <si>
+    <t>11,12,13</t>
+  </si>
+  <si>
+    <t>10.128.102.103</t>
+  </si>
+  <si>
+    <t>BBB-SALA02--VAC-4UHV-SI</t>
+  </si>
+  <si>
+    <t>14,15,16</t>
+  </si>
+  <si>
+    <t>10.128.102.117</t>
+  </si>
+  <si>
+    <t>BBB-SALA02-CON-MBTEMP-SR-BEFORE-BC</t>
   </si>
   <si>
     <t>MBTemp</t>
   </si>
   <si>
-    <t>1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>10.128.121.213</t>
-  </si>
-  <si>
-    <t>teste2</t>
-  </si>
-  <si>
-    <t>6,7</t>
-  </si>
-  <si>
-    <t>10.128.121.214</t>
-  </si>
-  <si>
-    <t>teste3</t>
-  </si>
-  <si>
-    <t>8,9,10</t>
-  </si>
-  <si>
-    <t>10.128.121.215</t>
-  </si>
-  <si>
-    <t>teste4</t>
-  </si>
-  <si>
-    <t>Fontes</t>
-  </si>
-  <si>
-    <t>1,2,6</t>
-  </si>
-  <si>
-    <t>BO-01</t>
-  </si>
-  <si>
-    <t>10.128.121.216</t>
-  </si>
-  <si>
-    <t>teste5</t>
-  </si>
-  <si>
-    <t>VAC-BI</t>
-  </si>
-  <si>
-    <t>1,2,7</t>
-  </si>
-  <si>
-    <t>10.128.121.217</t>
-  </si>
-  <si>
-    <t>teste6</t>
-  </si>
-  <si>
-    <t>VAC-MKS</t>
-  </si>
-  <si>
-    <t>1,2,8</t>
-  </si>
-  <si>
-    <t>10.128.121.218</t>
-  </si>
-  <si>
-    <t>teste7</t>
-  </si>
-  <si>
-    <t>11,12,13</t>
-  </si>
-  <si>
-    <t>10.128.121.219</t>
-  </si>
-  <si>
-    <t>teste8</t>
-  </si>
-  <si>
-    <t>1,2,10</t>
-  </si>
-  <si>
-    <t>SI-02</t>
-  </si>
-  <si>
-    <t>10.128.121.220</t>
-  </si>
-  <si>
-    <t>teste9</t>
-  </si>
-  <si>
-    <t>1,2,11</t>
-  </si>
-  <si>
-    <t>TL</t>
-  </si>
-  <si>
-    <t>10.128.121.221</t>
-  </si>
-  <si>
-    <t>teste10</t>
-  </si>
-  <si>
-    <t>RAD</t>
-  </si>
-  <si>
-    <t>1,2,12</t>
-  </si>
-  <si>
-    <t>SI-xx</t>
-  </si>
-  <si>
-    <t>10.128.121.222</t>
-  </si>
-  <si>
-    <t>teste11</t>
-  </si>
-  <si>
-    <t>1,2,13</t>
-  </si>
-  <si>
-    <t>BO-yy</t>
+    <t>10.128.102.118</t>
+  </si>
+  <si>
+    <t>BBB-SALA02-CON-MBTEMP-SR-AFTER-BC</t>
+  </si>
+  <si>
+    <t>21,22,23</t>
+  </si>
+  <si>
+    <t>10.128.102.119</t>
+  </si>
+  <si>
+    <t>BBB-SALA02-CON-MBTEMP-RF-PETRA7</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
   </si>
 </sst>
 </file>
@@ -192,7 +123,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1596052559" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1596475201" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -207,7 +138,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1596052559" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1596475201" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -223,7 +154,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1596052559" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1596475201" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -245,7 +176,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1596052559" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1596475201" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -267,7 +198,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1596052559"/>
+          <pm:border xmlns:pm="smNativeData" id="1596475201"/>
         </ext>
       </extLst>
     </border>
@@ -286,7 +217,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1596052559"/>
+          <pm:border xmlns:pm="smNativeData" id="1596475201"/>
         </ext>
       </extLst>
     </border>
@@ -294,12 +225,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -307,9 +239,16 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1596052559" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1596475201" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1596475201" count="5">
+        <pm:color name="Color 24" rgb="95B3D7"/>
+        <pm:color name="Color 25" rgb="DCE6F1"/>
+        <pm:color name="Color 26" rgb="D8D8D8"/>
+        <pm:color name="Color 27" rgb="BFBFBF"/>
+        <pm:color name="Color 28" rgb="4F81BD"/>
+      </pm:colors>
     </ext>
   </extLst>
 </styleSheet>
@@ -571,24 +510,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:XFD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="175" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
   <cols>
     <col min="1" max="1" width="15.774775" customWidth="1" style="1"/>
-    <col min="2" max="2" width="16.018018" customWidth="1" style="1"/>
+    <col min="2" max="2" width="38.702703" customWidth="1" style="1"/>
     <col min="3" max="3" width="15.765766" customWidth="1" style="1"/>
-    <col min="4" max="4" width="10.342342" customWidth="1" style="1"/>
+    <col min="4" max="4" width="10.801802" customWidth="1" style="1"/>
     <col min="5" max="5" width="15.045045" customWidth="1" style="1"/>
     <col min="6" max="6" width="15.000000" customWidth="1" style="1"/>
     <col min="7" max="16384" width="10.000000" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
+    <row r="1" spans="1:16384" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -604,7 +543,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -620,7 +559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -628,158 +567,73 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1596052559" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1596475201" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -788,14 +642,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1596052559" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1596052559" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1596475201" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1596475201" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1596052559" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1596475201" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/host/function/scripts/IA-xx.xlsx
+++ b/host/function/scripts/IA-xx.xlsx
@@ -13,17 +13,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1596475201" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1596475201" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1596475201" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1596475201"/>
+      <pm:revision xmlns:pm="smNativeData" day="1596743202" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1596743202" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1596743202" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1596743202"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>BBB_IP</t>
   </si>
@@ -98,6 +98,42 @@
   </si>
   <si>
     <t>1,2,3</t>
+  </si>
+  <si>
+    <t>10.128.102.104</t>
+  </si>
+  <si>
+    <t>BBB-PS-DCLink</t>
+  </si>
+  <si>
+    <t>PowerSupply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2 </t>
+  </si>
+  <si>
+    <t>FBP-DCLink</t>
+  </si>
+  <si>
+    <t>10.128.102.122</t>
+  </si>
+  <si>
+    <t>BBB-SI-CORRETORAS1</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>CH1,CH2,CV1,CV2,CH3,CH4,CV3</t>
+  </si>
+  <si>
+    <t>10.128.102.132</t>
+  </si>
+  <si>
+    <t>BBB-SI-CORRETORAS2</t>
+  </si>
+  <si>
+    <t>CV4,CH5,CH6,CV5,CV6,CH7,CV7</t>
   </si>
 </sst>
 </file>
@@ -123,7 +159,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1596475201" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1596743202" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -138,7 +174,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1596475201" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1596743202" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -154,7 +190,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1596475201" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1596743202" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -176,7 +212,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1596475201" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1596743202" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -198,7 +234,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1596475201"/>
+          <pm:border xmlns:pm="smNativeData" id="1596743202"/>
         </ext>
       </extLst>
     </border>
@@ -217,7 +253,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1596475201"/>
+          <pm:border xmlns:pm="smNativeData" id="1596743202"/>
         </ext>
       </extLst>
     </border>
@@ -239,10 +275,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1596475201" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1596743202" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1596475201" count="5">
+      <pm:colors xmlns:pm="smNativeData" id="1596743202" count="5">
         <pm:color name="Color 24" rgb="95B3D7"/>
         <pm:color name="Color 25" rgb="DCE6F1"/>
         <pm:color name="Color 26" rgb="D8D8D8"/>
@@ -513,7 +549,7 @@
   <dimension ref="A1:XFD12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" zoomScale="175" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -522,7 +558,7 @@
     <col min="2" max="2" width="38.702703" customWidth="1" style="1"/>
     <col min="3" max="3" width="15.765766" customWidth="1" style="1"/>
     <col min="4" max="4" width="10.801802" customWidth="1" style="1"/>
-    <col min="5" max="5" width="15.045045" customWidth="1" style="1"/>
+    <col min="5" max="5" width="29.558559" customWidth="1" style="1"/>
     <col min="6" max="6" width="15.000000" customWidth="1" style="1"/>
     <col min="7" max="16384" width="10.000000" style="1"/>
   </cols>
@@ -629,11 +665,62 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1596475201" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1596743202" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -642,14 +729,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1596475201" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1596475201" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1596743202" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1596743202" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1596475201" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1596743202" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/host/function/scripts/IA-xx.xlsx
+++ b/host/function/scripts/IA-xx.xlsx
@@ -5,25 +5,26 @@
   <fileSharing readOnlyRecommended="0" userName="nallin"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="102" sheetId="1" r:id="rId4"/>
+    <sheet name="103" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1596743202" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1596743202" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1596743202" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1596743202"/>
+      <pm:revision xmlns:pm="smNativeData" day="1597926887" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1597926887" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1597926887" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1597926887"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>BBB_IP</t>
   </si>
@@ -134,6 +135,60 @@
   </si>
   <si>
     <t>CV4,CH5,CH6,CV5,CV6,CH7,CV7</t>
+  </si>
+  <si>
+    <t>10.128.103.101</t>
+  </si>
+  <si>
+    <t>BBB-SALA03--VAC-MKS</t>
+  </si>
+  <si>
+    <t>10.128.103.102</t>
+  </si>
+  <si>
+    <t>BBB-SALA03-VAC-4UHV-BO</t>
+  </si>
+  <si>
+    <t>11,12</t>
+  </si>
+  <si>
+    <t>10.128.103.103</t>
+  </si>
+  <si>
+    <t>BBB-SALA03-VAC-4UHV-SI</t>
+  </si>
+  <si>
+    <t>13,14,15</t>
+  </si>
+  <si>
+    <t>10.128.103.106</t>
+  </si>
+  <si>
+    <t>BBB-SALA03-CON-MBTEMP-BO-06-10</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>10.128.103.117</t>
+  </si>
+  <si>
+    <t>BBB-SALA03-CON-MBTEMP-SR-BEFORE-BC</t>
+  </si>
+  <si>
+    <t>10.128.103.118</t>
+  </si>
+  <si>
+    <t>BBB-SALA03-CON-MBTEMP-SR-AFTER-BC</t>
+  </si>
+  <si>
+    <t>10.128.103.104</t>
+  </si>
+  <si>
+    <t>10.128.103.122</t>
+  </si>
+  <si>
+    <t>10.128.103.132</t>
   </si>
 </sst>
 </file>
@@ -159,7 +214,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1596743202" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1597926887" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -174,7 +229,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1596743202" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1597926887" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -190,7 +245,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1596743202" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1597926887" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -212,7 +267,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1596743202" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1597926887" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -234,7 +289,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1596743202"/>
+          <pm:border xmlns:pm="smNativeData" id="1597926887"/>
         </ext>
       </extLst>
     </border>
@@ -253,7 +308,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1596743202"/>
+          <pm:border xmlns:pm="smNativeData" id="1597926887"/>
         </ext>
       </extLst>
     </border>
@@ -261,13 +316,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -275,10 +329,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1596743202" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1597926887" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1596743202" count="5">
+      <pm:colors xmlns:pm="smNativeData" id="1597926887" count="5">
         <pm:color name="Color 24" rgb="95B3D7"/>
         <pm:color name="Color 25" rgb="DCE6F1"/>
         <pm:color name="Color 26" rgb="D8D8D8"/>
@@ -546,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="175" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView view="normal" zoomScale="175" workbookViewId="0">
+      <selection activeCell="B12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -563,7 +617,7 @@
     <col min="7" max="16384" width="10.000000" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="2" customFormat="1">
+    <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -579,7 +633,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -595,7 +649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -609,7 +663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -623,7 +677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -720,7 +774,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1596743202" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1597926887" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -729,14 +783,215 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1596743202" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1596743202" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1597926887" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1597926887" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1596743202" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1597926887" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" zoomScale="175" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
+  <cols>
+    <col min="1" max="1" width="15.774775" customWidth="1" style="1"/>
+    <col min="2" max="2" width="38.702703" customWidth="1" style="1"/>
+    <col min="3" max="3" width="15.765766" customWidth="1" style="1"/>
+    <col min="4" max="4" width="10.801802" customWidth="1" style="1"/>
+    <col min="5" max="5" width="29.558559" customWidth="1" style="1"/>
+    <col min="6" max="6" width="15.000000" customWidth="1" style="1"/>
+    <col min="7" max="16384" width="10.000000" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1597926887" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1597926887" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1597926887" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1597926887" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
